--- a/medicine/Pharmacie/Trametinib/Trametinib.xlsx
+++ b/medicine/Pharmacie/Trametinib/Trametinib.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le trametinib, est vendu sous le nom commercial Mekinist[1].
+Le trametinib, est vendu sous le nom commercial Mekinist.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Usage médical</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Est un médicament utilisé pour traiter certains types de mélanome, de cancer du poumon non à petites cellules et de cancer anaplasique de la thyroïde[1],[2]. Plus précisément, il est utilisé pour les cancers porteurs de la mutation BRAF V600E[1].Il est pris par voie orale[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Est un médicament utilisé pour traiter certains types de mélanome, de cancer du poumon non à petites cellules et de cancer anaplasique de la thyroïde,. Plus précisément, il est utilisé pour les cancers porteurs de la mutation BRAF V600E.Il est pris par voie orale.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les effets secondaires courants sont les suivants : éruption cutanée, diarrhée, fatigue, gonflement, nausées et fièvre ; [1] d'autres effets secondaires peuvent inclure de nouveaux cancers, des saignements, des colites, des caillots sanguins et une insuffisance cardiaque[2]. L'utilisation pendant la grossesse peut nuire au fœtus[2]. C'est un inhibiteur de MEK et bloque à la fois MEK1 et MEK2[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets secondaires courants sont les suivants : éruption cutanée, diarrhée, fatigue, gonflement, nausées et fièvre ;  d'autres effets secondaires peuvent inclure de nouveaux cancers, des saignements, des colites, des caillots sanguins et une insuffisance cardiaque. L'utilisation pendant la grossesse peut nuire au fœtus. C'est un inhibiteur de MEK et bloque à la fois MEK1 et MEK2.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le trametinib a été approuvé pour un usage médical aux États-Unis en 2013 et en Europe en 2014[2],[1]. Au Royaume-Uni, un mois de médicament coûte au NHS environ 4 800 livre sterling à partir de 2021[4]. Ce montant aux États-Unis coûte environ 13 200 dollar américain[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le trametinib a été approuvé pour un usage médical aux États-Unis en 2013 et en Europe en 2014,. Au Royaume-Uni, un mois de médicament coûte au NHS environ 4 800 livre sterling à partir de 2021. Ce montant aux États-Unis coûte environ 13 200 dollar américain.
 </t>
         </is>
       </c>
